--- a/GroceryApp/src/test/resources/TestData.xlsx
+++ b/GroceryApp/src/test/resources/TestData.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\Automation5\GroceryApp\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F59A6F6-A722-4B23-AF1E-AA1636634E48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C36B08B-E983-485F-B4EE-1C57D4C05A20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" firstSheet="1" activeTab="3" xr2:uid="{0BBEFE08-FC86-473A-88D7-DCDF87B8A85B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" firstSheet="4" activeTab="6" xr2:uid="{0BBEFE08-FC86-473A-88D7-DCDF87B8A85B}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUsersPage" sheetId="2" r:id="rId2"/>
     <sheet name="CategoryPage" sheetId="3" r:id="rId3"/>
     <sheet name="ManageContactPage" sheetId="6" r:id="rId4"/>
-    <sheet name="SubCategoryPage" sheetId="4" r:id="rId5"/>
-    <sheet name="ManageNewsPage" sheetId="5" r:id="rId6"/>
+    <sheet name="ManageFooterTextPage" sheetId="7" r:id="rId5"/>
+    <sheet name="SubCategoryPage" sheetId="4" r:id="rId6"/>
+    <sheet name="ManageNewsPage" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>username</t>
   </si>
@@ -166,6 +167,31 @@
   </si>
   <si>
     <t>Alert</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-footertext</t>
+  </si>
+  <si>
+    <t>112Portland Bridge Way NewsWay</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+Footer Text Updated Successfully</t>
+  </si>
+  <si>
+    <t>DeleteSuccessAlertMessage</t>
+  </si>
+  <si>
+    <t>×
+Alert!
+News Deleted Successfully</t>
   </si>
 </sst>
 </file>
@@ -715,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B48A610-3E96-4F35-A817-A5645D152BF9}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -786,6 +812,65 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772947B1-D5E9-4F68-B218-75C584BA981B}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="57.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>678912</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B5A61BC2-3F04-4494-9BE3-1242143CA9FA}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{77D10359-9F81-48EB-BBF7-8D5E6257AE9E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A101AA1-DAE3-46B6-9560-7DE4721574A0}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -813,12 +898,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E585AC50-39F7-4825-A7BB-E9543A03A3FA}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,9 +911,10 @@
     <col min="1" max="1" width="49.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -838,8 +924,11 @@
       <c r="C1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -848,6 +937,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
